--- a/data/三国演义本体.xlsx
+++ b/data/三国演义本体.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25605"/>
+    <workbookView windowWidth="16200" windowHeight="25605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="词汇表" sheetId="2" r:id="rId1"/>
@@ -271,8 +271,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -304,11 +304,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,9 +382,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,96 +421,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,37 +448,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,145 +592,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,24 +789,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -816,32 +804,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,155 +838,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,16 +1037,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,13 +1064,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1072,25 +1081,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1447,169 +1444,169 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="35"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="36"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="36"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="36"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="37"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1658,10 +1655,10 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1677,77 +1674,77 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="7"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1770,8 +1767,8 @@
   <sheetPr/>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1804,7 +1801,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1813,45 +1810,45 @@
         <v>22</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="15" t="s">
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="17" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="17" t="s">
         <v>26</v>
       </c>
       <c r="H5"/>
@@ -1863,90 +1860,90 @@
         <v>27</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="15" t="s">
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="15" t="s">
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="15" t="s">
+      <c r="C8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="15" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="15" t="s">
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="15" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1956,212 +1953,212 @@
         <v>34</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="16"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="16"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:10">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -2190,7 +2187,7 @@
         <v>20</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2199,315 +2196,315 @@
         <v>52</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="15" t="s">
+      <c r="C32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="16"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="16"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="16"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="16"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="16"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="16"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="16"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="6"/>
+      <c r="E40" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="6"/>
+      <c r="E41" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="16"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="16"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5" t="s">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="16"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="16"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="16"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="16"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5" t="s">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="16"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="16"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="16"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5" t="s">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="16"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
@@ -2525,52 +2522,52 @@
         <v>79</v>
       </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="19"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="11" t="s">
+      <c r="B57" s="6"/>
+      <c r="C57" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="20"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13" t="s">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13" t="s">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="149">

--- a/data/三国演义本体.xlsx
+++ b/data/三国演义本体.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25605" activeTab="2"/>
+    <workbookView windowWidth="16200" windowHeight="10935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="词汇表" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
   <si>
     <t>概念术语</t>
   </si>
@@ -27,7 +27,7 @@
     <t>事件；战役</t>
   </si>
   <si>
-    <t>地点；州；郡；县；其他地点</t>
+    <t>地点；州；郡；县</t>
   </si>
   <si>
     <t>势力</t>
@@ -42,7 +42,7 @@
     <t>属性术语</t>
   </si>
   <si>
-    <t xml:space="preserve">姓名；拼音；性别；是否虚构；字；出生年份；死亡年份；现代籍贯；别名；事件名；提示；历史；发生时间；地名；现代地名；行政级别；势力名称；建立时间；灭亡时间；官职名称；章节编号；章节标题；介绍；效忠势力；古代籍贯；父亲；母亲；配偶；兄弟；子女；击败；致死；事件地点；对应章节；涉及人物；主公；主要将领；参战势力；胜利势力；失败势力；参战人物；死亡人物；所属州；所属郡  </t>
+    <t xml:space="preserve">姓名；拼音；性别；是否虚构；字；出生年份；死亡年份；现代籍贯；别名；事件名；提示；历史；发生时间；地名；现代地名；行政级别；势力名称；建立时间；灭亡时间；官职名称；章节编号；章节标题；介绍；效忠势力；古代籍贯；父母；配偶；兄弟；子女；击败；致死；事件地点；对应章节；涉及人物；主公；主要将领；参战势力；胜利势力；失败势力；参战人物；死亡人物；所属州；所属郡  </t>
   </si>
   <si>
     <t>概念</t>
@@ -66,7 +66,7 @@
     <t>地点</t>
   </si>
   <si>
-    <t>州；郡；县；其他地点</t>
+    <t>州；郡；县</t>
   </si>
   <si>
     <t>值属性</t>
@@ -141,7 +141,7 @@
     <t>行政级别</t>
   </si>
   <si>
-    <t>{“州”，“郡”，“县”，“其他地点”}</t>
+    <t>{“州”，“郡”，“县”}</t>
   </si>
   <si>
     <t>势力名称</t>
@@ -156,12 +156,12 @@
     <t>官职名称</t>
   </si>
   <si>
+    <t>章节编号</t>
+  </si>
+  <si>
     <t>数值</t>
   </si>
   <si>
-    <t>章节编号</t>
-  </si>
-  <si>
     <t>章节标题</t>
   </si>
   <si>
@@ -183,10 +183,7 @@
     <t>古代籍贯</t>
   </si>
   <si>
-    <t>父亲</t>
-  </si>
-  <si>
-    <t>母亲</t>
+    <t>父母</t>
   </si>
   <si>
     <t>配偶</t>
@@ -237,7 +234,7 @@
     <t>所属州</t>
   </si>
   <si>
-    <t>郡；县；其他地点</t>
+    <t>郡；县</t>
   </si>
   <si>
     <t>州</t>
@@ -246,7 +243,7 @@
     <t>所属郡</t>
   </si>
   <si>
-    <t>县；其他地点</t>
+    <t>县</t>
   </si>
   <si>
     <t>郡</t>
@@ -269,9 +266,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -280,13 +277,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,9 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,11 +308,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,8 +332,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,9 +350,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,14 +397,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -390,38 +411,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,181 +457,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,11 +777,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,9 +809,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,11 +859,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,181 +874,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1445,7 +1442,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1632,7 +1629,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1765,10 +1762,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1931,10 +1928,10 @@
       <c r="G10" s="17"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>1</v>
       </c>
@@ -2009,10 +2006,10 @@
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2024,10 +2021,10 @@
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
@@ -2039,10 +2036,10 @@
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
@@ -2056,10 +2053,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
@@ -2071,10 +2068,10 @@
       <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>4</v>
       </c>
@@ -2086,10 +2083,10 @@
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
         <v>4</v>
       </c>
@@ -2101,40 +2098,40 @@
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="18" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="6"/>
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2146,10 +2143,10 @@
       <c r="G24" s="17"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:10">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
         <v>50</v>
       </c>
@@ -2222,10 +2219,10 @@
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
         <v>1</v>
       </c>
@@ -2237,10 +2234,10 @@
       <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="6" t="s">
         <v>1</v>
       </c>
@@ -2252,10 +2249,10 @@
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
         <v>1</v>
       </c>
@@ -2267,10 +2264,10 @@
       <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
         <v>1</v>
       </c>
@@ -2312,18 +2309,18 @@
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6"/>
+      <c r="E39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="16"/>
       <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7">
@@ -2336,7 +2333,7 @@
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
@@ -2350,19 +2347,19 @@
         <v>13</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="16"/>
+      <c r="E41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6"/>
       <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
@@ -2392,11 +2389,11 @@
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="17"/>
@@ -2441,7 +2438,7 @@
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="17"/>
@@ -2462,115 +2459,100 @@
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="6"/>
+      <c r="A50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="5"/>
       <c r="C50" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="17"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="20"/>
+      <c r="A56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B57" s="6"/>
-      <c r="C57" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="10"/>
+      <c r="C57" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="149">
+  <mergeCells count="146">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -2708,18 +2690,15 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:F50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="C58:G58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
